--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgopi/eclipse-workspace/ShareApp_V2.0/src/com/share/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A452BE-41E7-F546-8D8A-9305595BD3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF9206C1-967E-4D4F-AFF4-3DA73BC30276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <sheet name="Devicelist" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -518,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,56 +899,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+    <sheetView topLeftCell="AY1" workbookViewId="0">
       <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="1"/>
-    <col min="20" max="22" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" style="1"/>
+    <col min="20" max="22" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="15" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1294,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" s="11" customFormat="1">
       <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
@@ -1319,10 +1315,10 @@
       <c r="BD3" s="15"/>
       <c r="BE3" s="15"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57">
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57">
       <c r="H7" s="3"/>
     </row>
   </sheetData>
@@ -1378,13 +1374,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -1400,19 +1396,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
@@ -1433,13 +1429,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1462,7 +1458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1485,7 +1481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -1548,7 +1544,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1563,7 +1559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1590,9 +1586,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -1616,7 +1612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -1624,7 +1620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -1641,22 +1637,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA22A0F3-2FD3-4199-A875-2658F51696ED}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1673,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>

--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7569B2B0-AFDF-4AE5-9185-DB3858A6F9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thi1907501\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1187DE-67C3-49CF-ABB3-897F074D4233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19068" windowHeight="13224" activeTab="1" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
   <si>
     <t>UserName</t>
   </si>
@@ -218,9 +222,6 @@
     <t>Test@1234</t>
   </si>
   <si>
-    <t>rams.shana+82@gmail.com</t>
-  </si>
-  <si>
     <t>+91</t>
   </si>
   <si>
@@ -326,9 +327,6 @@
     <t>testgamil.com</t>
   </si>
   <si>
-    <t>sit21@yopmail.com</t>
-  </si>
-  <si>
     <t>45Smit@jj</t>
   </si>
   <si>
@@ -353,9 +351,6 @@
     <t>2016</t>
   </si>
   <si>
-    <t>smuserqa1@yopmail.com</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -428,9 +423,6 @@
     <t>9078</t>
   </si>
   <si>
-    <t>Test@1</t>
-  </si>
-  <si>
     <t>Justi</t>
   </si>
   <si>
@@ -440,9 +432,6 @@
     <t>987895756</t>
   </si>
   <si>
-    <t>Test@one</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -536,9 +525,6 @@
     <t>2ae14a90803f7ece</t>
   </si>
   <si>
-    <t>smtestqa2@yopmail.com</t>
-  </si>
-  <si>
     <t>existingPin</t>
   </si>
   <si>
@@ -549,6 +535,138 @@
   </si>
   <si>
     <t>1233</t>
+  </si>
+  <si>
+    <t>sharetest372@yopmail.com</t>
+  </si>
+  <si>
+    <t>AnotherGroupMember</t>
+  </si>
+  <si>
+    <t>arthurrimbaud@yopmail.com</t>
+  </si>
+  <si>
+    <t>Family head</t>
+  </si>
+  <si>
+    <t>Head password</t>
+  </si>
+  <si>
+    <t>sharetest369@yopmail.com</t>
+  </si>
+  <si>
+    <t>sharetest371@yopmail.com</t>
+  </si>
+  <si>
+    <t>FamilyMember</t>
+  </si>
+  <si>
+    <t>MemberPassword</t>
+  </si>
+  <si>
+    <t>Test@8544</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Peterherz</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>5566556644</t>
+  </si>
+  <si>
+    <t>99950569412</t>
+  </si>
+  <si>
+    <t>999505694</t>
+  </si>
+  <si>
+    <t>cCode</t>
+  </si>
+  <si>
+    <t>+971</t>
+  </si>
+  <si>
+    <t>Test@12</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Testingone</t>
+  </si>
+  <si>
+    <t>email clear</t>
+  </si>
+  <si>
+    <t>email re-enter</t>
+  </si>
+  <si>
+    <t>clearEmail</t>
+  </si>
+  <si>
+    <t>reEnterEmail</t>
+  </si>
+  <si>
+    <t>rams.shana+222@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+224@gmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa13@yopmail.com</t>
+  </si>
+  <si>
+    <t>VisaCardNumber</t>
+  </si>
+  <si>
+    <t>VisaNameOnCard</t>
+  </si>
+  <si>
+    <t>VisaCardExpiry</t>
+  </si>
+  <si>
+    <t>VisaCardCVC</t>
+  </si>
+  <si>
+    <t>TransactionUser</t>
+  </si>
+  <si>
+    <t>TransactionUserPassword</t>
+  </si>
+  <si>
+    <t>4111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>Lorem Iya</t>
+  </si>
+  <si>
+    <t>automation10@yopmail.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>modifyEmail</t>
+  </si>
+  <si>
+    <t>rams.shana+93@gmail.com</t>
+  </si>
+  <si>
+    <t>smautomation08@yopmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+1002@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -634,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -651,6 +769,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,15 +1091,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A30B-D8F6-4A82-9CDE-322859A69DF6}">
-  <dimension ref="A1:BI3"/>
+  <dimension ref="A1:BS6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="47" max="47" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:71">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,139 +1164,169 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" ht="15" thickBot="1">
+      <c r="BN1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1170,34 +1334,34 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>62</v>
@@ -1206,166 +1370,217 @@
         <v>62</v>
       </c>
       <c r="O2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="U2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AO2" s="1">
+        <v>123</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AR2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO2" s="17">
+        <v>43972</v>
+      </c>
+      <c r="BP2">
         <v>123</v>
       </c>
-      <c r="AN2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BQ2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" s="10" customFormat="1">
+      <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BF2" s="6"/>
-      <c r="BH2" s="9" t="s">
+      <c r="L3" s="12"/>
+      <c r="R3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" s="12"/>
+      <c r="AE3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE3" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:61" s="10" customFormat="1">
-      <c r="C3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="AC3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BN3" s="12"/>
+    </row>
+    <row r="6" spans="1:71">
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BE3:BH3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FEB83603-4041-4AC3-87F2-87C79DF9B630}"/>
@@ -1377,44 +1592,49 @@
     <hyperlink ref="G2" r:id="rId7" display="Samuel@!" xr:uid="{4508698D-5125-4924-8669-2C63F2C79446}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{3584B448-8C19-4D61-B5C6-CF6CAD807BA7}"/>
     <hyperlink ref="Q2" r:id="rId9" xr:uid="{C3B18B62-FD76-49B4-AC64-952E552192A6}"/>
-    <hyperlink ref="T2" r:id="rId10" xr:uid="{A6D9E0E8-9647-4912-8849-2C709036FBFB}"/>
-    <hyperlink ref="U2" r:id="rId11" xr:uid="{03A9420C-BE4E-4CD7-83CA-712C4ADE84D8}"/>
-    <hyperlink ref="V2" r:id="rId12" xr:uid="{08ECC748-5948-4040-98CB-5F512E4B7301}"/>
-    <hyperlink ref="R2" r:id="rId13" xr:uid="{D0D49FFD-52B7-4610-8A3A-F6CE6EA95810}"/>
-    <hyperlink ref="Y2" r:id="rId14" xr:uid="{939F42D2-797F-4EF4-867E-7BFD07D6EFFC}"/>
-    <hyperlink ref="Z2" r:id="rId15" xr:uid="{EC4C6ACC-4058-435C-89FA-2275C3EB9357}"/>
-    <hyperlink ref="AA2" r:id="rId16" display="test@1234" xr:uid="{38B60C3F-7FD1-4B9C-873E-64BA8E8695E8}"/>
-    <hyperlink ref="AB2" r:id="rId17" xr:uid="{C052FBD8-54B3-4ABD-B212-87F718D2D335}"/>
-    <hyperlink ref="S2" r:id="rId18" xr:uid="{67F348E4-94FB-4ED2-B6E6-2FE03FD2EAE8}"/>
-    <hyperlink ref="AC2" r:id="rId19" xr:uid="{8B71A440-5A66-4098-B967-9D5375ED8181}"/>
-    <hyperlink ref="AE2" r:id="rId20" xr:uid="{A81C7D2B-2E01-42C3-8030-0EA608AD6665}"/>
-    <hyperlink ref="AD2" r:id="rId21" xr:uid="{AA5FFD45-DDB6-4311-869B-AD51F90222D0}"/>
-    <hyperlink ref="AG2" r:id="rId22" xr:uid="{EDC3C242-9D6E-4B14-BB15-E981BBFC1C28}"/>
-    <hyperlink ref="AH2" r:id="rId23" xr:uid="{9F03904E-A390-47AE-AFDD-655528A2B98A}"/>
-    <hyperlink ref="AO2" r:id="rId24" display="mailto:maf125@yopmail.com" xr:uid="{391B3587-9E43-46E8-9D66-76FAF1B11681}"/>
-    <hyperlink ref="AP2" r:id="rId25" xr:uid="{FC342C04-EEBA-42D2-A95E-B0C8FBCDD1E0}"/>
-    <hyperlink ref="AQ2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
-    <hyperlink ref="AS2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
-    <hyperlink ref="AT2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
-    <hyperlink ref="AU2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
-    <hyperlink ref="AV2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
-    <hyperlink ref="AF2" r:id="rId31" xr:uid="{C63DDE71-D130-4D74-B112-4B05CED4026E}"/>
-    <hyperlink ref="AW2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
-    <hyperlink ref="AX2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
-    <hyperlink ref="AY2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
-    <hyperlink ref="BH2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
-    <hyperlink ref="BI2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
+    <hyperlink ref="V2" r:id="rId10" xr:uid="{A6D9E0E8-9647-4912-8849-2C709036FBFB}"/>
+    <hyperlink ref="W2" r:id="rId11" xr:uid="{03A9420C-BE4E-4CD7-83CA-712C4ADE84D8}"/>
+    <hyperlink ref="X2" r:id="rId12" xr:uid="{08ECC748-5948-4040-98CB-5F512E4B7301}"/>
+    <hyperlink ref="T2" r:id="rId13" xr:uid="{D0D49FFD-52B7-4610-8A3A-F6CE6EA95810}"/>
+    <hyperlink ref="AA2" r:id="rId14" xr:uid="{939F42D2-797F-4EF4-867E-7BFD07D6EFFC}"/>
+    <hyperlink ref="AB2" r:id="rId15" xr:uid="{EC4C6ACC-4058-435C-89FA-2275C3EB9357}"/>
+    <hyperlink ref="AC2" r:id="rId16" display="test@1234" xr:uid="{38B60C3F-7FD1-4B9C-873E-64BA8E8695E8}"/>
+    <hyperlink ref="AD2" r:id="rId17" xr:uid="{C052FBD8-54B3-4ABD-B212-87F718D2D335}"/>
+    <hyperlink ref="U2" r:id="rId18" xr:uid="{67F348E4-94FB-4ED2-B6E6-2FE03FD2EAE8}"/>
+    <hyperlink ref="AE2" r:id="rId19" xr:uid="{8B71A440-5A66-4098-B967-9D5375ED8181}"/>
+    <hyperlink ref="AG2" r:id="rId20" xr:uid="{A81C7D2B-2E01-42C3-8030-0EA608AD6665}"/>
+    <hyperlink ref="AF2" r:id="rId21" xr:uid="{AA5FFD45-DDB6-4311-869B-AD51F90222D0}"/>
+    <hyperlink ref="AI2" r:id="rId22" xr:uid="{EDC3C242-9D6E-4B14-BB15-E981BBFC1C28}"/>
+    <hyperlink ref="AJ2" r:id="rId23" xr:uid="{9F03904E-A390-47AE-AFDD-655528A2B98A}"/>
+    <hyperlink ref="AQ2" r:id="rId24" display="mailto:maf125@yopmail.com" xr:uid="{391B3587-9E43-46E8-9D66-76FAF1B11681}"/>
+    <hyperlink ref="AR2" r:id="rId25" xr:uid="{FC342C04-EEBA-42D2-A95E-B0C8FBCDD1E0}"/>
+    <hyperlink ref="AS2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
+    <hyperlink ref="AU2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
+    <hyperlink ref="AV2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
+    <hyperlink ref="AW2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
+    <hyperlink ref="AY2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
+    <hyperlink ref="AH2" r:id="rId31" xr:uid="{C63DDE71-D130-4D74-B112-4B05CED4026E}"/>
+    <hyperlink ref="AZ2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
+    <hyperlink ref="BA2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
+    <hyperlink ref="BB2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
+    <hyperlink ref="BK2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
+    <hyperlink ref="BL2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
+    <hyperlink ref="AX2" r:id="rId37" xr:uid="{EE914E6A-EE92-4FF0-B07D-2B8ADCB4BCB8}"/>
+    <hyperlink ref="R2" r:id="rId38" xr:uid="{EB1698BB-CE31-4A8C-8A78-12B573EB1674}"/>
+    <hyperlink ref="S2" r:id="rId39" xr:uid="{A41C9E1F-4548-41A1-B8A5-9D37094640E3}"/>
+    <hyperlink ref="BI2" r:id="rId40" xr:uid="{12F3864C-B2F5-4EEE-9B59-1DB589969825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7615949-9F3C-4DD2-B182-38B039D1A0DA}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1427,18 +1647,18 @@
     <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>59</v>
@@ -1453,24 +1673,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1489,43 +1709,49 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1533,157 +1759,209 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB9B33-2A12-4BF6-9ABF-C5BE359B3CFF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>147</v>
+      <c r="H7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1691,6 +1969,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5555CF94-AD36-4D4C-A94F-58406B4840EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1706,42 +1985,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1769,42 +2048,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thi1907501\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIJO\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1187DE-67C3-49CF-ABB3-897F074D4233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271093BF-77C8-4560-B2F5-424B3F0743EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="220">
   <si>
     <t>UserName</t>
   </si>
@@ -321,9 +321,6 @@
     <t>maf125@yopmail.com</t>
   </si>
   <si>
-    <t>Dec@2019</t>
-  </si>
-  <si>
     <t>testgamil.com</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>newUserSharePassword</t>
   </si>
   <si>
-    <t>smtestqa1@yopmail.com</t>
-  </si>
-  <si>
     <t>signuser</t>
   </si>
   <si>
@@ -615,58 +609,88 @@
     <t>reEnterEmail</t>
   </si>
   <si>
-    <t>rams.shana+222@gmail.com</t>
+    <t>smtestqa13@yopmail.com</t>
+  </si>
+  <si>
+    <t>VisaCardNumber</t>
+  </si>
+  <si>
+    <t>VisaNameOnCard</t>
+  </si>
+  <si>
+    <t>VisaCardExpiry</t>
+  </si>
+  <si>
+    <t>VisaCardCVC</t>
+  </si>
+  <si>
+    <t>TransactionUser</t>
+  </si>
+  <si>
+    <t>TransactionUserPassword</t>
+  </si>
+  <si>
+    <t>4111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>Lorem Iya</t>
+  </si>
+  <si>
+    <t>automation10@yopmail.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>modifyEmail</t>
+  </si>
+  <si>
+    <t>smtestqa24@yopmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa25@yopmail.com</t>
+  </si>
+  <si>
+    <t>OfferTest</t>
+  </si>
+  <si>
+    <t>OfferPass</t>
+  </si>
+  <si>
+    <t>rams.shana+104@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+2001@gmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa30@yopmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa31@yopmail.com</t>
   </si>
   <si>
     <t>rams.shana+224@gmail.com</t>
   </si>
   <si>
-    <t>smtestqa13@yopmail.com</t>
-  </si>
-  <si>
-    <t>VisaCardNumber</t>
-  </si>
-  <si>
-    <t>VisaNameOnCard</t>
-  </si>
-  <si>
-    <t>VisaCardExpiry</t>
-  </si>
-  <si>
-    <t>VisaCardCVC</t>
-  </si>
-  <si>
-    <t>TransactionUser</t>
-  </si>
-  <si>
-    <t>TransactionUserPassword</t>
-  </si>
-  <si>
-    <t>4111 1111 1111 1111</t>
-  </si>
-  <si>
-    <t>Lorem Iya</t>
-  </si>
-  <si>
-    <t>automation10@yopmail.com</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>modifyEmail</t>
-  </si>
-  <si>
-    <t>rams.shana+93@gmail.com</t>
-  </si>
-  <si>
-    <t>smautomation08@yopmail.com</t>
-  </si>
-  <si>
-    <t>rams.shana+1002@gmail.com</t>
+    <t>LeftFamilyMember</t>
+  </si>
+  <si>
+    <t>sharetest377@yopmail.com</t>
+  </si>
+  <si>
+    <t>Target_UserEmail</t>
+  </si>
+  <si>
+    <t>Target_UserPassword</t>
+  </si>
+  <si>
+    <t>sharetest103@gmail.com</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
   </si>
 </sst>
 </file>
@@ -752,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -774,6 +798,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,27 +1118,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A30B-D8F6-4A82-9CDE-322859A69DF6}">
-  <dimension ref="A1:BS6"/>
+  <dimension ref="A1:BZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="47" max="47" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="18" max="18" width="30.90625" customWidth="1"/>
+    <col min="19" max="19" width="31.453125" customWidth="1"/>
+    <col min="31" max="31" width="16.81640625" customWidth="1"/>
+    <col min="34" max="34" width="14.81640625" customWidth="1"/>
+    <col min="43" max="43" width="26.7265625" customWidth="1"/>
+    <col min="44" max="46" width="19.90625" customWidth="1"/>
+    <col min="49" max="49" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.26953125" customWidth="1"/>
+    <col min="52" max="52" width="19.54296875" customWidth="1"/>
+    <col min="53" max="53" width="27.36328125" customWidth="1"/>
+    <col min="56" max="56" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="32.36328125" customWidth="1"/>
+    <col min="66" max="66" width="11.7265625" customWidth="1"/>
+    <col min="68" max="68" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.54296875" customWidth="1"/>
+    <col min="77" max="77" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:78">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,10 +1206,10 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -1245,88 +1287,103 @@
         <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>208</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:78" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1379,10 +1436,10 @@
         <v>74</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>75</v>
@@ -1454,133 +1511,155 @@
         <v>1</v>
       </c>
       <c r="AQ2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN2" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR2" s="17">
+        <v>43972</v>
+      </c>
+      <c r="BS2">
+        <v>123</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" s="10" customFormat="1">
+      <c r="C3" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK2" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO2" s="17">
-        <v>43972</v>
-      </c>
-      <c r="BP2">
-        <v>123</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" s="10" customFormat="1">
-      <c r="C3" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="L3" s="12"/>
       <c r="R3" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U3" s="12"/>
       <c r="AE3" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV3" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BN3" s="12"/>
-    </row>
-    <row r="6" spans="1:71">
+        <v>106</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BQ3" s="12"/>
+    </row>
+    <row r="5" spans="1:78">
+      <c r="AQ5" s="8"/>
+    </row>
+    <row r="6" spans="1:78">
       <c r="E6" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BE3:BH3"/>
+  <mergeCells count="2">
+    <mergeCell ref="BH3:BK3"/>
+    <mergeCell ref="BV2:BX2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FEB83603-4041-4AC3-87F2-87C79DF9B630}"/>
@@ -1606,26 +1685,31 @@
     <hyperlink ref="AF2" r:id="rId21" xr:uid="{AA5FFD45-DDB6-4311-869B-AD51F90222D0}"/>
     <hyperlink ref="AI2" r:id="rId22" xr:uid="{EDC3C242-9D6E-4B14-BB15-E981BBFC1C28}"/>
     <hyperlink ref="AJ2" r:id="rId23" xr:uid="{9F03904E-A390-47AE-AFDD-655528A2B98A}"/>
-    <hyperlink ref="AQ2" r:id="rId24" display="mailto:maf125@yopmail.com" xr:uid="{391B3587-9E43-46E8-9D66-76FAF1B11681}"/>
+    <hyperlink ref="AQ2" r:id="rId24" xr:uid="{391B3587-9E43-46E8-9D66-76FAF1B11681}"/>
     <hyperlink ref="AR2" r:id="rId25" xr:uid="{FC342C04-EEBA-42D2-A95E-B0C8FBCDD1E0}"/>
-    <hyperlink ref="AS2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
-    <hyperlink ref="AU2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
-    <hyperlink ref="AV2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
-    <hyperlink ref="AW2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
-    <hyperlink ref="AY2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
+    <hyperlink ref="AU2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
+    <hyperlink ref="AW2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
+    <hyperlink ref="AX2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
+    <hyperlink ref="AY2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
+    <hyperlink ref="BB2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
     <hyperlink ref="AH2" r:id="rId31" xr:uid="{C63DDE71-D130-4D74-B112-4B05CED4026E}"/>
-    <hyperlink ref="AZ2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
-    <hyperlink ref="BA2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
-    <hyperlink ref="BB2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
-    <hyperlink ref="BK2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
-    <hyperlink ref="BL2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
-    <hyperlink ref="AX2" r:id="rId37" xr:uid="{EE914E6A-EE92-4FF0-B07D-2B8ADCB4BCB8}"/>
+    <hyperlink ref="BC2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
+    <hyperlink ref="BD2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
+    <hyperlink ref="BE2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
+    <hyperlink ref="BN2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
+    <hyperlink ref="BO2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
+    <hyperlink ref="BA2" r:id="rId37" xr:uid="{EE914E6A-EE92-4FF0-B07D-2B8ADCB4BCB8}"/>
     <hyperlink ref="R2" r:id="rId38" xr:uid="{EB1698BB-CE31-4A8C-8A78-12B573EB1674}"/>
     <hyperlink ref="S2" r:id="rId39" xr:uid="{A41C9E1F-4548-41A1-B8A5-9D37094640E3}"/>
-    <hyperlink ref="BI2" r:id="rId40" xr:uid="{12F3864C-B2F5-4EEE-9B59-1DB589969825}"/>
+    <hyperlink ref="BL2" r:id="rId40" xr:uid="{12F3864C-B2F5-4EEE-9B59-1DB589969825}"/>
+    <hyperlink ref="BY2" r:id="rId41" xr:uid="{412CB2A8-BD03-43F8-819D-0BDA4CB10D66}"/>
+    <hyperlink ref="BZ2" r:id="rId42" xr:uid="{3BF4EED9-D1F5-4AA2-8128-266667E14BC4}"/>
+    <hyperlink ref="AZ2" r:id="rId43" xr:uid="{81E9407B-A564-42AD-A698-411AFC9DC0E8}"/>
+    <hyperlink ref="AS2" r:id="rId44" xr:uid="{CF80DD1F-8B34-41CF-BCE9-361BF5396458}"/>
+    <hyperlink ref="AT2" r:id="rId45" xr:uid="{00771314-1F75-4704-83B6-4F8406F2E128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -1634,31 +1718,32 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>59</v>
@@ -1675,22 +1760,22 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1783,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{7D43DA10-EDC2-4FF7-A7F9-B02F8AEEF144}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{131C2077-46DA-4049-83CC-484A51FB3894}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{52B3380B-E6E7-40C8-BC6C-372F61E89792}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{60108167-2CF5-40D3-BAB9-2A87EB7AE714}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{A153B09D-7BD6-449D-9305-8377633953D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1712,26 +1797,26 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1743,15 +1828,15 @@
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1763,7 +1848,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1780,159 +1865,159 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>63</v>
@@ -1940,25 +2025,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>63</v>
@@ -1981,14 +2066,14 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1996,31 +2081,31 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2036,54 +2121,54 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>155</v>
-      </c>
-      <c r="E1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
         <v>158</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2184,7 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIJO\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271093BF-77C8-4560-B2F5-424B3F0743EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357404BD-6326-4AD6-BD55-F95A6BCD2F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
   </bookViews>
@@ -660,9 +660,6 @@
     <t>OfferPass</t>
   </si>
   <si>
-    <t>rams.shana+104@gmail.com</t>
-  </si>
-  <si>
     <t>rams.shana+2001@gmail.com</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>smtestqa31@yopmail.com</t>
   </si>
   <si>
-    <t>rams.shana+224@gmail.com</t>
-  </si>
-  <si>
     <t>LeftFamilyMember</t>
   </si>
   <si>
@@ -691,6 +685,12 @@
   </si>
   <si>
     <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>rams.shana+105@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+225@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A30B-D8F6-4A82-9CDE-322859A69DF6}">
   <dimension ref="A1:BZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS16" sqref="AS16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1287,10 +1287,10 @@
         <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>42</v>
@@ -1308,7 +1308,7 @@
         <v>46</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>167</v>
@@ -1391,7 +1391,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
@@ -1436,10 +1436,10 @@
         <v>74</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>75</v>
@@ -1517,10 +1517,10 @@
         <v>105</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>95</v>
@@ -1538,7 +1538,7 @@
         <v>166</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>168</v>
@@ -1574,7 +1574,7 @@
         <v>104</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BN2" s="16" t="s">
         <v>192</v>
@@ -1769,10 +1769,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>105</v>

--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIJO\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357404BD-6326-4AD6-BD55-F95A6BCD2F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFC00F-9BFD-4743-89CF-A01C51E679DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,15 +660,6 @@
     <t>OfferPass</t>
   </si>
   <si>
-    <t>rams.shana+2001@gmail.com</t>
-  </si>
-  <si>
-    <t>smtestqa30@yopmail.com</t>
-  </si>
-  <si>
-    <t>smtestqa31@yopmail.com</t>
-  </si>
-  <si>
     <t>LeftFamilyMember</t>
   </si>
   <si>
@@ -687,10 +678,19 @@
     <t>Qwerty@123</t>
   </si>
   <si>
-    <t>rams.shana+105@gmail.com</t>
-  </si>
-  <si>
     <t>rams.shana+225@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+106@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+2002@gmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa32@yopmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa33@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A30B-D8F6-4A82-9CDE-322859A69DF6}">
   <dimension ref="A1:BZ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1287,10 +1287,10 @@
         <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>42</v>
@@ -1308,7 +1308,7 @@
         <v>46</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>167</v>
@@ -1391,7 +1391,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
@@ -1436,10 +1436,10 @@
         <v>74</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>75</v>
@@ -1517,10 +1517,10 @@
         <v>105</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>95</v>
@@ -1538,7 +1538,7 @@
         <v>166</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>168</v>
@@ -1574,7 +1574,7 @@
         <v>104</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="BN2" s="16" t="s">
         <v>192</v>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7615949-9F3C-4DD2-B182-38B039D1A0DA}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1769,10 +1769,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>105</v>

--- a/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
+++ b/ShareAppV2/src/com/share/testdata/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIJO\git\ShareAppV2\ShareAppV2\src\com\share\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFC00F-9BFD-4743-89CF-A01C51E679DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E88E09B-05C4-4259-B5E6-D3251D418B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AC1E8FC1-B97C-4DB0-B2CE-53C9679652AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="223">
   <si>
     <t>UserName</t>
   </si>
@@ -678,19 +678,28 @@
     <t>Qwerty@123</t>
   </si>
   <si>
-    <t>rams.shana+225@gmail.com</t>
-  </si>
-  <si>
-    <t>rams.shana+106@gmail.com</t>
-  </si>
-  <si>
-    <t>rams.shana+2002@gmail.com</t>
-  </si>
-  <si>
-    <t>smtestqa32@yopmail.com</t>
-  </si>
-  <si>
-    <t>smtestqa33@yopmail.com</t>
+    <t>New email address needed</t>
+  </si>
+  <si>
+    <t>rams.shana+226@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+109@gmail.com</t>
+  </si>
+  <si>
+    <t>rams.shana+110@gmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa34@yopmail.com</t>
+  </si>
+  <si>
+    <t>smtestqa35@yopmail.com</t>
+  </si>
+  <si>
+    <t>NonLoyaltyUser</t>
+  </si>
+  <si>
+    <t>sharec4@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6644A30B-D8F6-4A82-9CDE-322859A69DF6}">
-  <dimension ref="A1:BZ6"/>
+  <dimension ref="A1:CA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1133,27 +1142,28 @@
     <col min="31" max="31" width="16.81640625" customWidth="1"/>
     <col min="34" max="34" width="14.81640625" customWidth="1"/>
     <col min="43" max="43" width="26.7265625" customWidth="1"/>
-    <col min="44" max="46" width="19.90625" customWidth="1"/>
-    <col min="49" max="49" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.26953125" customWidth="1"/>
-    <col min="52" max="52" width="19.54296875" customWidth="1"/>
-    <col min="53" max="53" width="27.36328125" customWidth="1"/>
-    <col min="56" max="56" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="32.36328125" customWidth="1"/>
-    <col min="66" max="66" width="11.7265625" customWidth="1"/>
-    <col min="68" max="68" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.54296875" customWidth="1"/>
-    <col min="77" max="77" width="12" customWidth="1"/>
+    <col min="44" max="47" width="19.90625" customWidth="1"/>
+    <col min="48" max="48" width="21.453125" customWidth="1"/>
+    <col min="50" max="50" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.26953125" customWidth="1"/>
+    <col min="53" max="53" width="19.54296875" customWidth="1"/>
+    <col min="54" max="54" width="27.36328125" customWidth="1"/>
+    <col min="57" max="57" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="32.36328125" customWidth="1"/>
+    <col min="67" max="67" width="11.7265625" customWidth="1"/>
+    <col min="69" max="69" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.54296875" customWidth="1"/>
+    <col min="78" max="78" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:79">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,97 +1303,100 @@
         <v>212</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>59</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>60</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>195</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>196</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>197</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>198</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>207</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="15" thickBot="1">
+    <row r="2" spans="1:79" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1391,7 +1404,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>63</v>
@@ -1436,10 +1449,10 @@
         <v>74</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>75</v>
@@ -1523,94 +1536,97 @@
         <v>214</v>
       </c>
       <c r="AU2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BE2" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BL2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BM2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO2" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BP2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BR2" s="17">
+      <c r="BS2" s="17">
         <v>43972</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>123</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>201</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>62</v>
       </c>
-      <c r="BV2" s="19"/>
       <c r="BW2" s="19"/>
       <c r="BX2" s="19"/>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="CA2" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="10" customFormat="1">
+    <row r="3" spans="1:79" s="10" customFormat="1">
       <c r="C3" s="11" t="s">
         <v>106</v>
       </c>
@@ -1630,36 +1646,39 @@
       <c r="AH3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BE3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BF3" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="BH3" s="18" t="s">
+      <c r="BI3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="BI3" s="18"/>
       <c r="BJ3" s="18"/>
       <c r="BK3" s="18"/>
-      <c r="BQ3" s="12"/>
-    </row>
-    <row r="5" spans="1:78">
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="BR3" s="12"/>
+    </row>
+    <row r="5" spans="1:79">
       <c r="AQ5" s="8"/>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:79">
       <c r="E6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="BH3:BK3"/>
-    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BI3:BL3"/>
+    <mergeCell ref="BW2:BY2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FEB83603-4041-4AC3-87F2-87C79DF9B630}"/>
@@ -1687,29 +1706,30 @@
     <hyperlink ref="AJ2" r:id="rId23" xr:uid="{9F03904E-A390-47AE-AFDD-655528A2B98A}"/>
     <hyperlink ref="AQ2" r:id="rId24" xr:uid="{391B3587-9E43-46E8-9D66-76FAF1B11681}"/>
     <hyperlink ref="AR2" r:id="rId25" xr:uid="{FC342C04-EEBA-42D2-A95E-B0C8FBCDD1E0}"/>
-    <hyperlink ref="AU2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
-    <hyperlink ref="AW2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
-    <hyperlink ref="AX2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
-    <hyperlink ref="AY2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
-    <hyperlink ref="BB2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
+    <hyperlink ref="AV2" r:id="rId26" xr:uid="{94F1E8E9-1A05-4EE8-BE9F-133A92606266}"/>
+    <hyperlink ref="AX2" r:id="rId27" xr:uid="{371CF388-9097-484F-93F8-F79C9EFDBE19}"/>
+    <hyperlink ref="AY2" r:id="rId28" xr:uid="{04516551-9E75-4685-A3E0-2E32D9C110F7}"/>
+    <hyperlink ref="AZ2" r:id="rId29" xr:uid="{5AB984D0-C0B8-49B6-99A2-C8C5E1A17DD9}"/>
+    <hyperlink ref="BC2" r:id="rId30" xr:uid="{9DEF9641-CF17-48D2-B650-590640FF1E02}"/>
     <hyperlink ref="AH2" r:id="rId31" xr:uid="{C63DDE71-D130-4D74-B112-4B05CED4026E}"/>
-    <hyperlink ref="BC2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
-    <hyperlink ref="BD2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
-    <hyperlink ref="BE2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
-    <hyperlink ref="BN2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
-    <hyperlink ref="BO2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
-    <hyperlink ref="BA2" r:id="rId37" xr:uid="{EE914E6A-EE92-4FF0-B07D-2B8ADCB4BCB8}"/>
+    <hyperlink ref="BD2" r:id="rId32" display="rasm.g@gmail.com" xr:uid="{6F6D1DA8-4F8C-4EE0-A9B0-2830798E1FE5}"/>
+    <hyperlink ref="BE2" r:id="rId33" xr:uid="{4EE4C7CC-2BE8-4AEF-B52A-67506C3A6C45}"/>
+    <hyperlink ref="BF2" r:id="rId34" xr:uid="{910E13F4-A439-45AB-82DB-3D21EA8FCF83}"/>
+    <hyperlink ref="BO2" r:id="rId35" xr:uid="{B66F5476-7F6E-461E-B40B-3630DFB2EFB0}"/>
+    <hyperlink ref="BP2" r:id="rId36" xr:uid="{DA2E6125-1460-4680-880E-0DAB589D8716}"/>
+    <hyperlink ref="BB2" r:id="rId37" xr:uid="{EE914E6A-EE92-4FF0-B07D-2B8ADCB4BCB8}"/>
     <hyperlink ref="R2" r:id="rId38" xr:uid="{EB1698BB-CE31-4A8C-8A78-12B573EB1674}"/>
     <hyperlink ref="S2" r:id="rId39" xr:uid="{A41C9E1F-4548-41A1-B8A5-9D37094640E3}"/>
-    <hyperlink ref="BL2" r:id="rId40" xr:uid="{12F3864C-B2F5-4EEE-9B59-1DB589969825}"/>
-    <hyperlink ref="BY2" r:id="rId41" xr:uid="{412CB2A8-BD03-43F8-819D-0BDA4CB10D66}"/>
-    <hyperlink ref="BZ2" r:id="rId42" xr:uid="{3BF4EED9-D1F5-4AA2-8128-266667E14BC4}"/>
-    <hyperlink ref="AZ2" r:id="rId43" xr:uid="{81E9407B-A564-42AD-A698-411AFC9DC0E8}"/>
+    <hyperlink ref="BM2" r:id="rId40" xr:uid="{12F3864C-B2F5-4EEE-9B59-1DB589969825}"/>
+    <hyperlink ref="BZ2" r:id="rId41" xr:uid="{412CB2A8-BD03-43F8-819D-0BDA4CB10D66}"/>
+    <hyperlink ref="CA2" r:id="rId42" xr:uid="{3BF4EED9-D1F5-4AA2-8128-266667E14BC4}"/>
+    <hyperlink ref="BA2" r:id="rId43" xr:uid="{81E9407B-A564-42AD-A698-411AFC9DC0E8}"/>
     <hyperlink ref="AS2" r:id="rId44" xr:uid="{CF80DD1F-8B34-41CF-BCE9-361BF5396458}"/>
     <hyperlink ref="AT2" r:id="rId45" xr:uid="{00771314-1F75-4704-83B6-4F8406F2E128}"/>
+    <hyperlink ref="AU2" r:id="rId46" xr:uid="{41BFDB3C-5A28-4DC0-9208-3B62DED9F93A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -1717,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7615949-9F3C-4DD2-B182-38B039D1A0DA}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1772,7 +1792,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>105</v>
